--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H2">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I2">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J2">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,27 +558,27 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.143104822222222E-05</v>
+        <v>0.0001512579705555556</v>
       </c>
       <c r="R2">
-        <v>0.000462879434</v>
+        <v>0.001361321735</v>
       </c>
       <c r="S2">
-        <v>0.0004884916844178632</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="T2">
-        <v>0.0004884916844178633</v>
+        <v>0.02259036512642383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02619133333333333</v>
+        <v>3.276419666666667</v>
       </c>
       <c r="H3">
-        <v>0.078574</v>
+        <v>9.829259</v>
       </c>
       <c r="I3">
-        <v>0.00783286589743605</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J3">
-        <v>0.007832865897436052</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0007732554644444445</v>
+        <v>0.006433796085444446</v>
       </c>
       <c r="R3">
-        <v>0.006959299180000001</v>
+        <v>0.057904164769</v>
       </c>
       <c r="S3">
-        <v>0.007344374213018188</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="T3">
-        <v>0.00734437421301819</v>
+        <v>0.9608869019286738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.276419666666667</v>
+        <v>0.056339</v>
       </c>
       <c r="H4">
-        <v>9.829259</v>
+        <v>0.169017</v>
       </c>
       <c r="I4">
-        <v>0.9798567925543612</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J4">
-        <v>0.9798567925543613</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,208 +682,22 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.006433796085444444</v>
+        <v>0.0001106310163333333</v>
       </c>
       <c r="R4">
-        <v>0.057904164769</v>
+        <v>0.000995679147</v>
       </c>
       <c r="S4">
-        <v>0.06110814373061624</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="T4">
-        <v>0.06110814373061625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.276419666666667</v>
-      </c>
-      <c r="H5">
-        <v>9.829259</v>
-      </c>
-      <c r="I5">
-        <v>0.9798567925543612</v>
-      </c>
-      <c r="J5">
-        <v>0.9798567925543613</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P5">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q5">
-        <v>0.0967308299588889</v>
-      </c>
-      <c r="R5">
-        <v>0.8705774696300002</v>
-      </c>
-      <c r="S5">
-        <v>0.9187486488237451</v>
-      </c>
-      <c r="T5">
-        <v>0.9187486488237452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.04116300000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.123489</v>
-      </c>
-      <c r="I6">
-        <v>0.01231034154820272</v>
-      </c>
-      <c r="J6">
-        <v>0.01231034154820272</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.005891</v>
-      </c>
-      <c r="O6">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P6">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q6">
-        <v>8.083041100000001E-05</v>
-      </c>
-      <c r="R6">
-        <v>0.000727473699</v>
-      </c>
-      <c r="S6">
-        <v>0.0007677265968014548</v>
-      </c>
-      <c r="T6">
-        <v>0.0007677265968014549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04116300000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.123489</v>
-      </c>
-      <c r="I7">
-        <v>0.01231034154820272</v>
-      </c>
-      <c r="J7">
-        <v>0.01231034154820272</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>0.00121526897</v>
-      </c>
-      <c r="R7">
-        <v>0.01093742073</v>
-      </c>
-      <c r="S7">
-        <v>0.01154261495140127</v>
-      </c>
-      <c r="T7">
-        <v>0.01154261495140127</v>
+        <v>0.01652273294490242</v>
       </c>
     </row>
   </sheetData>
